--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +528,1859 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>23.5834937228278</v>
+        <v>0.2365093333333333</v>
       </c>
       <c r="N2">
-        <v>23.5834937228278</v>
+        <v>0.709528</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.006013533229697845</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.006013533229697844</v>
       </c>
       <c r="Q2">
-        <v>266.5068182767261</v>
+        <v>0.09412574797066668</v>
       </c>
       <c r="R2">
-        <v>266.5068182767261</v>
+        <v>0.8471317317360001</v>
       </c>
       <c r="S2">
-        <v>0.839041207145384</v>
+        <v>0.0001613416953964984</v>
       </c>
       <c r="T2">
-        <v>0.839041207145384</v>
+        <v>0.0001613416953964983</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.16786182214407</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>2.16786182214407</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.160958792854616</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.5834937228278</v>
+        <v>0.075101</v>
       </c>
       <c r="N3">
-        <v>23.5834937228278</v>
+        <v>0.225303</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.001909532925058086</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.001909532925058085</v>
       </c>
       <c r="Q3">
-        <v>51.12575567449271</v>
+        <v>0.029888620879</v>
       </c>
       <c r="R3">
-        <v>51.12575567449271</v>
+        <v>0.268997587911</v>
       </c>
       <c r="S3">
-        <v>0.160958792854616</v>
+        <v>5.123232345716768E-05</v>
       </c>
       <c r="T3">
-        <v>0.160958792854616</v>
+        <v>5.123232345716767E-05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.397979</v>
+      </c>
+      <c r="H4">
+        <v>1.193937</v>
+      </c>
+      <c r="I4">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="J4">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.006358</v>
+      </c>
+      <c r="N4">
+        <v>0.019074</v>
+      </c>
+      <c r="O4">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P4">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q4">
+        <v>0.002530350482</v>
+      </c>
+      <c r="R4">
+        <v>0.022773154338</v>
+      </c>
+      <c r="S4">
+        <v>4.337293944696769E-06</v>
+      </c>
+      <c r="T4">
+        <v>4.337293944696769E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.397979</v>
+      </c>
+      <c r="H5">
+        <v>1.193937</v>
+      </c>
+      <c r="I5">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="J5">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.302191</v>
+      </c>
+      <c r="O5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P5">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q5">
+        <v>0.04008855732966667</v>
+      </c>
+      <c r="R5">
+        <v>0.360797015967</v>
+      </c>
+      <c r="S5">
+        <v>6.871611588769326E-05</v>
+      </c>
+      <c r="T5">
+        <v>6.871611588769326E-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.397979</v>
+      </c>
+      <c r="H6">
+        <v>1.193937</v>
+      </c>
+      <c r="I6">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="J6">
+        <v>0.02682976699949243</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N6">
+        <v>116.732443</v>
+      </c>
+      <c r="O6">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P6">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q6">
+        <v>15.48568697756567</v>
+      </c>
+      <c r="R6">
+        <v>139.371182798091</v>
+      </c>
+      <c r="S6">
+        <v>0.02654413957080638</v>
+      </c>
+      <c r="T6">
+        <v>0.02654413957080638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H7">
+        <v>34.046756</v>
+      </c>
+      <c r="I7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.709528</v>
+      </c>
+      <c r="O7">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P7">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q7">
+        <v>2.684125187907556</v>
+      </c>
+      <c r="R7">
+        <v>24.157126691168</v>
+      </c>
+      <c r="S7">
+        <v>0.004600880394686573</v>
+      </c>
+      <c r="T7">
+        <v>0.004600880394686573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H8">
+        <v>34.046756</v>
+      </c>
+      <c r="I8">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J8">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.075101</v>
+      </c>
+      <c r="N8">
+        <v>0.225303</v>
+      </c>
+      <c r="O8">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P8">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q8">
+        <v>0.8523151407853334</v>
+      </c>
+      <c r="R8">
+        <v>7.670836267068</v>
+      </c>
+      <c r="S8">
+        <v>0.001460960181365738</v>
+      </c>
+      <c r="T8">
+        <v>0.001460960181365737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H9">
+        <v>34.046756</v>
+      </c>
+      <c r="I9">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J9">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.006358</v>
+      </c>
+      <c r="N9">
+        <v>0.019074</v>
+      </c>
+      <c r="O9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P9">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q9">
+        <v>0.07215642488266667</v>
+      </c>
+      <c r="R9">
+        <v>0.6494078239440001</v>
+      </c>
+      <c r="S9">
+        <v>0.0001236839034516632</v>
+      </c>
+      <c r="T9">
+        <v>0.0001236839034516632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H10">
+        <v>34.046756</v>
+      </c>
+      <c r="I10">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J10">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.302191</v>
+      </c>
+      <c r="O10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P10">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q10">
+        <v>1.143180360266222</v>
+      </c>
+      <c r="R10">
+        <v>10.288623242396</v>
+      </c>
+      <c r="S10">
+        <v>0.001959534574182738</v>
+      </c>
+      <c r="T10">
+        <v>0.001959534574182738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H11">
+        <v>34.046756</v>
+      </c>
+      <c r="I11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J11">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N11">
+        <v>116.732443</v>
+      </c>
+      <c r="O11">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P11">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q11">
+        <v>441.5956671227676</v>
+      </c>
+      <c r="R11">
+        <v>3974.361004104908</v>
+      </c>
+      <c r="S11">
+        <v>0.7569426554308891</v>
+      </c>
+      <c r="T11">
+        <v>0.7569426554308891</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.119535</v>
+      </c>
+      <c r="H12">
+        <v>0.358605</v>
+      </c>
+      <c r="I12">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J12">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.709528</v>
+      </c>
+      <c r="O12">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P12">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q12">
+        <v>0.02827114316</v>
+      </c>
+      <c r="R12">
+        <v>0.25444028844</v>
+      </c>
+      <c r="S12">
+        <v>4.845979199711651E-05</v>
+      </c>
+      <c r="T12">
+        <v>4.845979199711651E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.119535</v>
+      </c>
+      <c r="H13">
+        <v>0.358605</v>
+      </c>
+      <c r="I13">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J13">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.075101</v>
+      </c>
+      <c r="N13">
+        <v>0.225303</v>
+      </c>
+      <c r="O13">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P13">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q13">
+        <v>0.008977198035</v>
+      </c>
+      <c r="R13">
+        <v>0.08079478231500001</v>
+      </c>
+      <c r="S13">
+        <v>1.53878867589811E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.53878867589811E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.119535</v>
+      </c>
+      <c r="H14">
+        <v>0.358605</v>
+      </c>
+      <c r="I14">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J14">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.006358</v>
+      </c>
+      <c r="N14">
+        <v>0.019074</v>
+      </c>
+      <c r="O14">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P14">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q14">
+        <v>0.00076000353</v>
+      </c>
+      <c r="R14">
+        <v>0.00684003177</v>
+      </c>
+      <c r="S14">
+        <v>1.302728112989199E-06</v>
+      </c>
+      <c r="T14">
+        <v>1.302728112989199E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.119535</v>
+      </c>
+      <c r="H15">
+        <v>0.358605</v>
+      </c>
+      <c r="I15">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J15">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.302191</v>
+      </c>
+      <c r="O15">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P15">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q15">
+        <v>0.012040800395</v>
+      </c>
+      <c r="R15">
+        <v>0.108367203555</v>
+      </c>
+      <c r="S15">
+        <v>2.063923200127498E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.063923200127498E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.119535</v>
+      </c>
+      <c r="H16">
+        <v>0.358605</v>
+      </c>
+      <c r="I16">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J16">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N16">
+        <v>116.732443</v>
+      </c>
+      <c r="O16">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P16">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q16">
+        <v>4.651204191335</v>
+      </c>
+      <c r="R16">
+        <v>41.860837722015</v>
+      </c>
+      <c r="S16">
+        <v>0.00797266620499157</v>
+      </c>
+      <c r="T16">
+        <v>0.00797266620499157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.372081</v>
+      </c>
+      <c r="I17">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J17">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.709528</v>
+      </c>
+      <c r="O17">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P17">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q17">
+        <v>0.1081699875297778</v>
+      </c>
+      <c r="R17">
+        <v>0.9735298877680001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001854150384495353</v>
+      </c>
+      <c r="T17">
+        <v>0.0001854150384495353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.372081</v>
+      </c>
+      <c r="I18">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J18">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.075101</v>
+      </c>
+      <c r="N18">
+        <v>0.225303</v>
+      </c>
+      <c r="O18">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P18">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q18">
+        <v>0.03434821839366667</v>
+      </c>
+      <c r="R18">
+        <v>0.309133965543</v>
+      </c>
+      <c r="S18">
+        <v>5.887655512931929E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.887655512931929E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.372081</v>
+      </c>
+      <c r="I19">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J19">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006358</v>
+      </c>
+      <c r="N19">
+        <v>0.019074</v>
+      </c>
+      <c r="O19">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P19">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q19">
+        <v>0.002907896999333334</v>
+      </c>
+      <c r="R19">
+        <v>0.026171072994</v>
+      </c>
+      <c r="S19">
+        <v>4.984449441581498E-06</v>
+      </c>
+      <c r="T19">
+        <v>4.984449441581498E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.372081</v>
+      </c>
+      <c r="I20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.302191</v>
+      </c>
+      <c r="O20">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P20">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q20">
+        <v>0.04607005883011111</v>
+      </c>
+      <c r="R20">
+        <v>0.414630529471</v>
+      </c>
+      <c r="S20">
+        <v>7.896905532142991E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.896905532142991E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.372081</v>
+      </c>
+      <c r="I21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N21">
+        <v>116.732443</v>
+      </c>
+      <c r="O21">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P21">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q21">
+        <v>17.79626301376478</v>
+      </c>
+      <c r="R21">
+        <v>160.166367123883</v>
+      </c>
+      <c r="S21">
+        <v>0.03050471638491108</v>
+      </c>
+      <c r="T21">
+        <v>0.03050471638491108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.391799</v>
+      </c>
+      <c r="I22">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J22">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.709528</v>
+      </c>
+      <c r="O22">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P22">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q22">
+        <v>0.03088804009688889</v>
+      </c>
+      <c r="R22">
+        <v>0.277992360872</v>
+      </c>
+      <c r="S22">
+        <v>5.29454359104816E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.294543591048158E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.391799</v>
+      </c>
+      <c r="I23">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J23">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.075101</v>
+      </c>
+      <c r="N23">
+        <v>0.225303</v>
+      </c>
+      <c r="O23">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P23">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q23">
+        <v>0.009808165566333333</v>
+      </c>
+      <c r="R23">
+        <v>0.088273490097</v>
+      </c>
+      <c r="S23">
+        <v>1.68122548327046E-05</v>
+      </c>
+      <c r="T23">
+        <v>1.68122548327046E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.391799</v>
+      </c>
+      <c r="I24">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J24">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.006358</v>
+      </c>
+      <c r="N24">
+        <v>0.019074</v>
+      </c>
+      <c r="O24">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P24">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q24">
+        <v>0.0008303526806666667</v>
+      </c>
+      <c r="R24">
+        <v>0.007473174126</v>
+      </c>
+      <c r="S24">
+        <v>1.423314153291379E-06</v>
+      </c>
+      <c r="T24">
+        <v>1.423314153291379E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.391799</v>
+      </c>
+      <c r="I25">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J25">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.302191</v>
+      </c>
+      <c r="O25">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P25">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q25">
+        <v>0.01315534795655555</v>
+      </c>
+      <c r="R25">
+        <v>0.118398131609</v>
+      </c>
+      <c r="S25">
+        <v>2.254968686679643E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.254968686679643E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N26">
+        <v>116.732443</v>
+      </c>
+      <c r="O26">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P26">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q26">
+        <v>5.081739381661889</v>
+      </c>
+      <c r="R26">
+        <v>45.73565443495701</v>
+      </c>
+      <c r="S26">
+        <v>0.008710650008922051</v>
+      </c>
+      <c r="T26">
+        <v>0.008710650008922051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H27">
+        <v>7.137283</v>
+      </c>
+      <c r="I27">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J27">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.2365093333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.709528</v>
+      </c>
+      <c r="O27">
+        <v>0.006013533229697845</v>
+      </c>
+      <c r="P27">
+        <v>0.006013533229697844</v>
+      </c>
+      <c r="Q27">
+        <v>0.5626780147137778</v>
+      </c>
+      <c r="R27">
+        <v>5.064102132424001</v>
+      </c>
+      <c r="S27">
+        <v>0.0009644908732576392</v>
+      </c>
+      <c r="T27">
+        <v>0.0009644908732576392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H28">
+        <v>7.137283</v>
+      </c>
+      <c r="I28">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J28">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.075101</v>
+      </c>
+      <c r="N28">
+        <v>0.225303</v>
+      </c>
+      <c r="O28">
+        <v>0.001909532925058086</v>
+      </c>
+      <c r="P28">
+        <v>0.001909532925058085</v>
+      </c>
+      <c r="Q28">
+        <v>0.1786723635276667</v>
+      </c>
+      <c r="R28">
+        <v>1.608051271749</v>
+      </c>
+      <c r="S28">
+        <v>0.0003062637235141754</v>
+      </c>
+      <c r="T28">
+        <v>0.0003062637235141755</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H29">
+        <v>7.137283</v>
+      </c>
+      <c r="I29">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J29">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.006358</v>
+      </c>
+      <c r="N29">
+        <v>0.019074</v>
+      </c>
+      <c r="O29">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="P29">
+        <v>0.0001616597693442072</v>
+      </c>
+      <c r="Q29">
+        <v>0.01512628177133333</v>
+      </c>
+      <c r="R29">
+        <v>0.136136535942</v>
+      </c>
+      <c r="S29">
+        <v>2.592808023998518E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.592808023998519E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H30">
+        <v>7.137283</v>
+      </c>
+      <c r="I30">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J30">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1007303333333333</v>
+      </c>
+      <c r="N30">
+        <v>0.302191</v>
+      </c>
+      <c r="O30">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="P30">
+        <v>0.002561189438916605</v>
+      </c>
+      <c r="Q30">
+        <v>0.2396469652281111</v>
+      </c>
+      <c r="R30">
+        <v>2.156822687053</v>
+      </c>
+      <c r="S30">
+        <v>0.000410780774656672</v>
+      </c>
+      <c r="T30">
+        <v>0.0004107807746566721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H31">
+        <v>7.137283</v>
+      </c>
+      <c r="I31">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J31">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>38.91081433333333</v>
+      </c>
+      <c r="N31">
+        <v>116.732443</v>
+      </c>
+      <c r="O31">
+        <v>0.9893540846369834</v>
+      </c>
+      <c r="P31">
+        <v>0.9893540846369833</v>
+      </c>
+      <c r="Q31">
+        <v>92.57249788581878</v>
+      </c>
+      <c r="R31">
+        <v>833.1524809723691</v>
+      </c>
+      <c r="S31">
+        <v>0.1586792570364631</v>
+      </c>
+      <c r="T31">
+        <v>0.1586792570364631</v>
       </c>
     </row>
   </sheetData>
